--- a/FeDaXmehreseries.xlsx
+++ b/FeDaXmehreseries.xlsx
@@ -481,7 +481,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -617,10 +617,13 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
